--- a/cronograma.xlsx
+++ b/cronograma.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomealmeida/Documents/Jet-Hire/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6268127D-5B8F-0F40-86DA-AC355CBF205A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3698CD-76EF-C642-BC8C-B3E6F997B344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" tabRatio="476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="21360" tabRatio="476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12º Ano" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'12º Ano'!$AU$6</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -166,7 +169,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,30 +214,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8A2B28"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -316,77 +355,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -394,23 +362,23 @@
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,6 +409,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF8A2B28"/>
+      <color rgb="FF532A00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -742,7 +716,7 @@
   <dimension ref="A1:AU20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AW12" sqref="AW12"/>
+      <selection activeCell="AN9" sqref="AN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1068,720 +1042,720 @@
       <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="5"/>
-      <c r="AT5" s="6"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
       <c r="AU5" s="1"/>
     </row>
     <row r="6" spans="1:47" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
-      <c r="AR6" s="1"/>
-      <c r="AS6" s="1"/>
-      <c r="AT6" s="8"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
       <c r="AU6" s="1"/>
     </row>
     <row r="7" spans="1:47" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="1"/>
-      <c r="AS7" s="1"/>
-      <c r="AT7" s="8"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
       <c r="AU7" s="1"/>
     </row>
     <row r="8" spans="1:47" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23"/>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="1"/>
-      <c r="AO8" s="1"/>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
-      <c r="AR8" s="1"/>
-      <c r="AS8" s="1"/>
-      <c r="AT8" s="8"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
       <c r="AU8" s="1"/>
     </row>
     <row r="9" spans="1:47" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="8"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
       <c r="AU9" s="1"/>
     </row>
     <row r="10" spans="1:47" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23"/>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="8"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
       <c r="AU10" s="1"/>
     </row>
     <row r="11" spans="1:47" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1"/>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="1"/>
-      <c r="AT11" s="8"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
       <c r="AU11" s="1"/>
     </row>
     <row r="12" spans="1:47" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="8"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
       <c r="AU12" s="1"/>
     </row>
     <row r="13" spans="1:47" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="8"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
       <c r="AU13" s="1"/>
     </row>
     <row r="14" spans="1:47" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="1"/>
-      <c r="AO14" s="1"/>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="1"/>
-      <c r="AR14" s="1"/>
-      <c r="AS14" s="1"/>
-      <c r="AT14" s="8"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="16"/>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
       <c r="AU14" s="1"/>
     </row>
     <row r="15" spans="1:47" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="1"/>
-      <c r="AO15" s="1"/>
-      <c r="AP15" s="1"/>
-      <c r="AQ15" s="1"/>
-      <c r="AR15" s="1"/>
-      <c r="AS15" s="1"/>
-      <c r="AT15" s="8"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="7"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
       <c r="AU15" s="1"/>
     </row>
     <row r="16" spans="1:47" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
-      <c r="AN16" s="1"/>
-      <c r="AO16" s="1"/>
-      <c r="AP16" s="1"/>
-      <c r="AQ16" s="1"/>
-      <c r="AR16" s="1"/>
-      <c r="AS16" s="1"/>
-      <c r="AT16" s="8"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="8"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
       <c r="AU16" s="1"/>
     </row>
     <row r="17" spans="1:47" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="1"/>
-      <c r="AO17" s="1"/>
-      <c r="AP17" s="1"/>
-      <c r="AQ17" s="1"/>
-      <c r="AR17" s="1"/>
-      <c r="AS17" s="1"/>
-      <c r="AT17" s="8"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
       <c r="AU17" s="1"/>
     </row>
     <row r="18" spans="1:47" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
-      <c r="AJ18" s="10"/>
-      <c r="AK18" s="10"/>
-      <c r="AL18" s="10"/>
-      <c r="AM18" s="10"/>
-      <c r="AN18" s="10"/>
-      <c r="AO18" s="10"/>
-      <c r="AP18" s="10"/>
-      <c r="AQ18" s="10"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
       <c r="AR18" s="10"/>
-      <c r="AS18" s="10"/>
-      <c r="AT18" s="11"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
       <c r="AU18" s="1"/>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.2">
